--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1076">
   <si>
     <t>anchor score</t>
   </si>
@@ -493,466 +493,466 @@
     <t>toward</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>really</t>
   </si>
   <si>
     <t>best</t>
@@ -3610,7 +3610,7 @@
         <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3668,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02703918130265391</v>
+        <v>0.0273828015344728</v>
       </c>
       <c r="C3">
         <v>194</v>
@@ -3689,28 +3689,28 @@
         <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>311</v>
       </c>
       <c r="K3">
-        <v>0.004249219950744071</v>
+        <v>0.007167116760645603</v>
       </c>
       <c r="L3">
-        <v>624</v>
+        <v>195</v>
       </c>
       <c r="M3">
-        <v>652</v>
+        <v>195</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2455</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3718,7 +3718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02230383987193063</v>
+        <v>0.02258728227876459</v>
       </c>
       <c r="C4">
         <v>132</v>
@@ -3739,28 +3739,28 @@
         <v>384</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="K4">
-        <v>0.003849294793006272</v>
+        <v>0.006430977649381301</v>
       </c>
       <c r="L4">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="M4">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3768,7 +3768,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0104542208809115</v>
+        <v>0.01058707556176798</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -3789,16 +3789,16 @@
         <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="K5">
-        <v>0.003652762401345705</v>
+        <v>0.004249219950744071</v>
       </c>
       <c r="L5">
-        <v>407</v>
+        <v>624</v>
       </c>
       <c r="M5">
-        <v>423</v>
+        <v>652</v>
       </c>
       <c r="N5">
         <v>0.96</v>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>2778</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3818,7 +3818,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009510389276352872</v>
+        <v>0.009631249524717993</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -3839,28 +3839,28 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="K6">
-        <v>0.003518650269382642</v>
+        <v>0.003849294793006272</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3868,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009105504498495424</v>
+        <v>0.009221219376530355</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3889,28 +3889,28 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="K7">
-        <v>0.003368652321232131</v>
+        <v>0.003652762401345705</v>
       </c>
       <c r="L7">
-        <v>124</v>
+        <v>407</v>
       </c>
       <c r="M7">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>361</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3918,7 +3918,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008896154571740351</v>
+        <v>0.009009208982006023</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -3939,16 +3939,16 @@
         <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K8">
-        <v>0.00328639001469176</v>
+        <v>0.003518650269382642</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>189</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3968,7 +3968,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007765200327433831</v>
+        <v>0.007863882306994028</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -3989,28 +3989,28 @@
         <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="K9">
-        <v>0.003079487349765381</v>
+        <v>0.003368652321232131</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4018,7 +4018,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006999456986203108</v>
+        <v>0.007088407720520253</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4039,28 +4039,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="K10">
-        <v>0.003066296225350135</v>
+        <v>0.00328639001469176</v>
       </c>
       <c r="L10">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4068,7 +4068,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006724860749032938</v>
+        <v>0.006810321850227805</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -4089,16 +4089,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K11">
-        <v>0.003036415475376331</v>
+        <v>0.003079487349765381</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4118,7 +4118,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006724860749032938</v>
+        <v>0.006810321850227805</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -4139,28 +4139,28 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="K12">
-        <v>0.003036415475376331</v>
+        <v>0.003066296225350135</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4168,7 +4168,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006438563977010728</v>
+        <v>0.006520386751953401</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4189,28 +4189,28 @@
         <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="K13">
-        <v>0.002946208643586372</v>
+        <v>0.003036415475376331</v>
       </c>
       <c r="L13">
-        <v>412</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>437</v>
+        <v>35</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1706</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4218,7 +4218,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006138929880544047</v>
+        <v>0.006216944835400148</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -4239,28 +4239,28 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="K14">
-        <v>0.002876769897134298</v>
+        <v>0.003036415475376331</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4268,7 +4268,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006138929880544047</v>
+        <v>0.006216944835400148</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -4289,28 +4289,28 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>318</v>
+        <v>102</v>
       </c>
       <c r="K15">
-        <v>0.002811174478363834</v>
+        <v>0.002946208643586372</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>437</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>113</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4318,7 +4318,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005823900245575373</v>
+        <v>0.005897911730245521</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -4339,28 +4339,28 @@
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="K16">
-        <v>0.002637381842810299</v>
+        <v>0.002876769897134298</v>
       </c>
       <c r="L16">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>678</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4368,7 +4368,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005823900245575373</v>
+        <v>0.005897911730245521</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K17">
-        <v>0.002461450417941259</v>
+        <v>0.002811174478363834</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4418,7 +4418,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005823900245575373</v>
+        <v>0.005897911730245521</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4439,28 +4439,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>320</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>0.002461450417941259</v>
+        <v>0.002637381842810299</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>74</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4468,7 +4468,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005823900245575373</v>
+        <v>0.005897911730245521</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4489,7 +4489,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K19">
         <v>0.002461450417941259</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>204</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4518,7 +4518,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005823900245575373</v>
+        <v>0.005897911730245521</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4539,16 +4539,16 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K20">
-        <v>0.002407345999586071</v>
+        <v>0.002461450417941259</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4568,7 +4568,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005823900245575373</v>
+        <v>0.005897911730245521</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4589,16 +4589,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K21">
-        <v>0.002407345999586071</v>
+        <v>0.002461450417941259</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4618,7 +4618,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4639,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K22">
         <v>0.002407345999586071</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4668,7 +4668,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4689,7 +4689,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K23">
         <v>0.002407345999586071</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>278</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4718,7 +4718,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4739,16 +4739,16 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K24">
-        <v>0.002351997313659801</v>
+        <v>0.002407345999586071</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4768,7 +4768,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4789,16 +4789,16 @@
         <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K25">
-        <v>0.002351997313659801</v>
+        <v>0.002407345999586071</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4818,7 +4818,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4839,16 +4839,16 @@
         <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K26">
-        <v>0.002295314349975354</v>
+        <v>0.002351997313659801</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4868,7 +4868,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4889,28 +4889,28 @@
         <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="K27">
-        <v>0.002270847966728427</v>
+        <v>0.002351997313659801</v>
       </c>
       <c r="L27">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>703</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4918,7 +4918,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -4939,16 +4939,16 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K28">
-        <v>0.002237195692589865</v>
+        <v>0.002295314349975354</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4968,7 +4968,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -4989,28 +4989,28 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="K29">
-        <v>0.002237195692589865</v>
+        <v>0.002270847966728427</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5018,7 +5018,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5039,7 +5039,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K30">
         <v>0.002237195692589865</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5068,7 +5068,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -5089,16 +5089,16 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K31">
-        <v>0.00217752638759729</v>
+        <v>0.002237195692589865</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5118,7 +5118,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -5139,28 +5139,28 @@
         <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>184</v>
+        <v>331</v>
       </c>
       <c r="K32">
-        <v>0.002140224404970538</v>
+        <v>0.002237195692589865</v>
       </c>
       <c r="L32">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>239</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5168,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005490825808800461</v>
+        <v>0.005560604505728389</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -5189,16 +5189,16 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K33">
-        <v>0.00211617526930601</v>
+        <v>0.00217752638759729</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5218,7 +5218,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005136197236746812</v>
+        <v>0.005201469230946771</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5239,28 +5239,28 @@
         <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K34">
-        <v>0.002097674926923792</v>
+        <v>0.002140224404970538</v>
       </c>
       <c r="L34">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="M34">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>134</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5268,7 +5268,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005136197236746812</v>
+        <v>0.005201469230946771</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5289,28 +5289,28 @@
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="K35">
-        <v>0.002090201455218969</v>
+        <v>0.00211617526930601</v>
       </c>
       <c r="L35">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5318,7 +5318,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005136197236746812</v>
+        <v>0.005201469230946771</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5339,28 +5339,28 @@
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K36">
-        <v>0.002083146062575222</v>
+        <v>0.002097674926923792</v>
       </c>
       <c r="L36">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M36">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5368,7 +5368,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005136197236746812</v>
+        <v>0.005201469230946771</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5389,28 +5389,28 @@
         <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K37">
-        <v>0.002066614423295895</v>
+        <v>0.002090201455218969</v>
       </c>
       <c r="L37">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="M37">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>447</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5418,7 +5418,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004755194638176436</v>
+        <v>0.004815624762358996</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5439,16 +5439,16 @@
         <v>246</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K38">
-        <v>0.00205134278686899</v>
+        <v>0.002083146062575222</v>
       </c>
       <c r="L38">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="M38">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="N38">
         <v>0.97</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5468,7 +5468,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004755194638176436</v>
+        <v>0.004815624762358996</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5489,28 +5489,28 @@
         <v>18</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K39">
-        <v>0.002010761277873003</v>
+        <v>0.002066614423295895</v>
       </c>
       <c r="L39">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="M39">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>133</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5518,7 +5518,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004755194638176436</v>
+        <v>0.004815624762358996</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5539,28 +5539,28 @@
         <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="K40">
-        <v>0.001987800536749623</v>
+        <v>0.00205134278686899</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5568,7 +5568,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004755194638176436</v>
+        <v>0.004815624762358996</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5589,7 +5589,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K41">
         <v>0.001987800536749623</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5618,7 +5618,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004755194638176436</v>
+        <v>0.004815624762358996</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5639,7 +5639,7 @@
         <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K42">
         <v>0.001987800536749623</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5668,7 +5668,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004755194638176436</v>
+        <v>0.004815624762358996</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5689,28 +5689,28 @@
         <v>34</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="K43">
-        <v>0.001922002940008726</v>
+        <v>0.001987800536749623</v>
       </c>
       <c r="L43">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5718,7 +5718,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5739,28 +5739,28 @@
         <v>75</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>337</v>
+        <v>170</v>
       </c>
       <c r="K44">
-        <v>0.001920397764954424</v>
+        <v>0.001922002940008726</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5768,7 +5768,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5789,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K45">
         <v>0.001920397764954424</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5818,7 +5818,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K46">
         <v>0.001920397764954424</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5868,7 +5868,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5889,7 +5889,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K47">
         <v>0.001920397764954424</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5918,7 +5918,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5939,28 +5939,28 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>164</v>
+        <v>340</v>
       </c>
       <c r="K48">
-        <v>0.001906606355475088</v>
+        <v>0.001920397764954424</v>
       </c>
       <c r="L48">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>720</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5968,7 +5968,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5992,13 +5992,13 @@
         <v>162</v>
       </c>
       <c r="K49">
-        <v>0.001877420022697334</v>
+        <v>0.001906606355475088</v>
       </c>
       <c r="L49">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M49">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="N49">
         <v>0.95</v>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>73</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6018,7 +6018,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6068,7 +6068,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6118,7 +6118,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6168,7 +6168,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004340878947761418</v>
+        <v>0.004396043851374129</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6218,7 +6218,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6268,7 +6268,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6289,7 +6289,7 @@
         <v>11</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K55">
         <v>0.001796252542059026</v>
@@ -6318,7 +6318,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6368,7 +6368,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6418,7 +6418,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6468,7 +6468,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6518,7 +6518,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6568,7 +6568,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6618,7 +6618,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6718,7 +6718,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6768,7 +6768,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003882600163716915</v>
+        <v>0.003931941153497014</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6818,7 +6818,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003404563443260255</v>
+        <v>0.003447829430736747</v>
       </c>
       <c r="C66">
         <v>28</v>
@@ -6868,7 +6868,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6889,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K67">
         <v>0.001667446908104854</v>
@@ -6918,7 +6918,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6939,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K68">
         <v>0.001648465260901694</v>
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6989,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K69">
         <v>0.001634739139111727</v>
@@ -7018,7 +7018,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7068,7 +7068,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7118,7 +7118,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7168,7 +7168,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7218,7 +7218,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7268,7 +7268,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7318,7 +7318,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7368,7 +7368,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7418,7 +7418,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7468,7 +7468,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003362430374516469</v>
+        <v>0.003405160925113903</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7518,7 +7518,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7568,7 +7568,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7618,7 +7618,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7668,7 +7668,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7718,7 +7718,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7768,7 +7768,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7818,7 +7818,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7868,7 +7868,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7918,7 +7918,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7968,7 +7968,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7989,7 +7989,7 @@
         <v>7</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K89">
         <v>0.001484667244813054</v>
@@ -8018,7 +8018,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8068,7 +8068,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8118,7 +8118,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8168,7 +8168,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8218,7 +8218,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8268,7 +8268,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8318,7 +8318,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002745412904400231</v>
+        <v>0.002780302252864195</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8368,7 +8368,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002745050854050382</v>
+        <v>0.002779935601493932</v>
       </c>
       <c r="C97">
         <v>25</v>
@@ -8418,7 +8418,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002739363781560318</v>
+        <v>0.002774176256358275</v>
       </c>
       <c r="C98">
         <v>16</v>
@@ -8468,7 +8468,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001956373794322406</v>
+        <v>0.001981235849471373</v>
       </c>
       <c r="C99">
         <v>8</v>
@@ -8518,7 +8518,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8568,7 +8568,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8618,7 +8618,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8668,7 +8668,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8818,7 +8818,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8868,7 +8868,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8918,7 +8918,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8968,7 +8968,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9018,7 +9018,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9068,7 +9068,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9118,7 +9118,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9168,7 +9168,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9218,7 +9218,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9239,7 +9239,7 @@
         <v>11</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K114">
         <v>0.001320842264105924</v>
@@ -9268,7 +9268,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9289,7 +9289,7 @@
         <v>27</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K115">
         <v>0.001270142353213511</v>
@@ -9318,7 +9318,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9339,7 +9339,7 @@
         <v>11</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K116">
         <v>0.001269218788864477</v>
@@ -9368,7 +9368,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9418,7 +9418,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9468,7 +9468,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9518,7 +9518,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9568,7 +9568,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9618,7 +9618,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9668,7 +9668,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9718,7 +9718,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9768,7 +9768,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9818,7 +9818,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9868,7 +9868,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9918,7 +9918,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9968,7 +9968,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10018,7 +10018,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10118,7 +10118,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10168,7 +10168,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10218,7 +10218,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10268,7 +10268,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>5</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K135">
         <v>0.00122629886514708</v>
@@ -10318,7 +10318,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10368,7 +10368,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10418,7 +10418,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10468,7 +10468,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10518,7 +10518,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10568,7 +10568,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10618,7 +10618,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10668,7 +10668,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10718,7 +10718,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10768,7 +10768,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10818,7 +10818,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10868,7 +10868,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10918,7 +10918,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10968,7 +10968,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11018,7 +11018,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11068,7 +11068,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11118,7 +11118,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11168,7 +11168,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001941300081858458</v>
+        <v>0.001965970576748507</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11218,25 +11218,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001886684708067379</v>
+        <v>0.001898140045028557</v>
       </c>
       <c r="C154">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>133</v>
+        <v>703</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>436</v>
@@ -11268,25 +11268,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001874320739269198</v>
+        <v>0.001745760861208926</v>
       </c>
       <c r="C155">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E155">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F155">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>703</v>
+        <v>166</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>437</v>
@@ -11318,25 +11318,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001723853725407873</v>
+        <v>0.001713076220295852</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="E156">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F156">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>438</v>
@@ -11368,13 +11368,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001700193582897466</v>
+        <v>0.001633036449384798</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D157">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E157">
         <v>0.95</v>
@@ -11386,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>73</v>
+        <v>720</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>439</v>
@@ -11418,25 +11418,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001691579236241812</v>
+        <v>0.001606732186907547</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D158">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E158">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F158">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>440</v>
@@ -11468,25 +11468,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001612543865285984</v>
+        <v>0.001583938013046258</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D159">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="E159">
-        <v>0.95</v>
+        <v>0.08</v>
       </c>
       <c r="F159">
-        <v>0.05000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>720</v>
+        <v>42</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>441</v>
@@ -11518,25 +11518,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0015865696887117</v>
+        <v>0.001475389290568827</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E160">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>442</v>
@@ -11568,25 +11568,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001564061553490266</v>
+        <v>0.001469976178506385</v>
       </c>
       <c r="C161">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D161">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="E161">
-        <v>0.08</v>
+        <v>0.97</v>
       </c>
       <c r="F161">
-        <v>0.92</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>443</v>
@@ -11618,25 +11618,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001456874982987473</v>
+        <v>0.001421574504024599</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>39</v>
+        <v>527</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>444</v>
@@ -11668,25 +11668,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001451529798774541</v>
+        <v>0.001376091243122062</v>
       </c>
       <c r="C163">
         <v>4</v>
       </c>
       <c r="D163">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>447</v>
+        <v>312</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>445</v>
@@ -11718,25 +11718,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001403735505337565</v>
+        <v>0.001354216243848839</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>527</v>
+        <v>16</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>446</v>
@@ -11768,25 +11768,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.00135882300300535</v>
+        <v>0.001315226612853562</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>447</v>
@@ -11818,28 +11818,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001337222507869763</v>
+        <v>0.001242980442322393</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D166">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E166">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F166">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>16</v>
+        <v>1054</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K166">
         <v>0.001098866061337696</v>
@@ -11868,28 +11868,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001298722148435114</v>
+        <v>0.001220240350952098</v>
       </c>
       <c r="C167">
         <v>3</v>
       </c>
       <c r="D167">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K167">
         <v>0.001078463192587325</v>
@@ -11918,28 +11918,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001227382577830717</v>
+        <v>0.001160710722070113</v>
       </c>
       <c r="C168">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E168">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F168">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>1054</v>
+        <v>267</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K168">
         <v>0.001066247648605586</v>
@@ -11968,25 +11968,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001204927846432023</v>
+        <v>0.001158764514064509</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E169">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F169">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>448</v>
@@ -12018,25 +12018,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001146145240634976</v>
+        <v>0.001124995277012252</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E170">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F170">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>449</v>
@@ -12068,25 +12068,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.00114422345512848</v>
+        <v>0.001120013310004155</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D171">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E171">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F171">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>361</v>
+        <v>28</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>450</v>
@@ -12118,25 +12118,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001110877980160962</v>
+        <v>0.001103518074920715</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E172">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>451</v>
@@ -12168,25 +12168,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001105958530666133</v>
+        <v>0.001101932431891189</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E173">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F173">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>452</v>
@@ -12218,25 +12218,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001089670290345304</v>
+        <v>0.00107815708749965</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D174">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>453</v>
@@ -12268,25 +12268,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001088104545171178</v>
+        <v>0.001063903948106175</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D175">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E175">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F175">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>454</v>
@@ -12318,25 +12318,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001064627551893974</v>
+        <v>0.00104705129646596</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E176">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F176">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>455</v>
@@ -12368,25 +12368,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001050553271740171</v>
+        <v>0.0009941563604963181</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E177">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F177">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>456</v>
@@ -12418,25 +12418,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.001033912099997513</v>
+        <v>0.0009855213060567746</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E178">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F178">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>457</v>
@@ -12468,25 +12468,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.00098168092993718</v>
+        <v>0.0009730434495430362</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E179">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>458</v>
@@ -12518,25 +12518,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0009731542347319737</v>
+        <v>0.0009237234007226554</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E180">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>459</v>
@@ -12568,25 +12568,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0009608329598573514</v>
+        <v>0.0009117912511138619</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>460</v>
@@ -12618,25 +12618,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.00091213181654186</v>
+        <v>0.0008614844552445365</v>
       </c>
       <c r="C182">
         <v>3</v>
       </c>
       <c r="D182">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>461</v>
@@ -12668,25 +12668,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0009003494006266592</v>
+        <v>0.0008149843181567543</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D183">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>462</v>
@@ -12718,25 +12718,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0008506738927151026</v>
+        <v>0.0008149843181567543</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E184">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F184">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>26</v>
+        <v>496</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>463</v>
@@ -12768,25 +12768,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008047572747338516</v>
+        <v>0.0008130852222182404</v>
       </c>
       <c r="C185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E185">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F185">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>464</v>
@@ -12818,25 +12818,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0008047572747338516</v>
+        <v>0.0008001389181486588</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E186">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>496</v>
+        <v>231</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>465</v>
@@ -12868,25 +12868,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0008028820100963757</v>
+        <v>0.0007939847187349889</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E187">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>466</v>
@@ -12918,25 +12918,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007900981661023268</v>
+        <v>0.000755986000432493</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>467</v>
@@ -12968,13 +12968,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007840211942662121</v>
+        <v>0.0007456710783408596</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E189">
         <v>0.97</v>
@@ -12986,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>468</v>
@@ -13018,25 +13018,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007464993127977958</v>
+        <v>0.000729478549948552</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E190">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>469</v>
@@ -13068,13 +13068,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0007363138301981682</v>
+        <v>0.0007239124905015488</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E191">
         <v>0.97</v>
@@ -13086,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>470</v>
@@ -13118,25 +13118,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007203244979745541</v>
+        <v>0.0007124172782436402</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>471</v>
@@ -13168,25 +13168,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007148282856772332</v>
+        <v>0.0006980104409016093</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>29</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>472</v>
@@ -13218,25 +13218,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007034773240905313</v>
+        <v>0.0006964886249084168</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E194">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F194">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>473</v>
@@ -13268,13 +13268,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0006892512747069938</v>
+        <v>0.0006643665578315444</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E195">
         <v>0.93</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>474</v>
@@ -13318,25 +13318,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006877485556189777</v>
+        <v>0.0006615935565460042</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>475</v>
@@ -13368,25 +13368,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006560295806845056</v>
+        <v>0.0006615935565460042</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>476</v>
@@ -13418,25 +13418,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006532913771293354</v>
+        <v>0.0006466399860268622</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>113</v>
+        <v>334</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>477</v>
@@ -13468,25 +13468,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006532913771293354</v>
+        <v>0.0006327133483428522</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E199">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F199">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>478</v>
@@ -13518,13 +13518,13 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006385254553926542</v>
+        <v>0.0006282561551722007</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="D200">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E200">
         <v>0.92</v>
@@ -13536,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>334</v>
+        <v>94</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>479</v>
@@ -13568,13 +13568,13 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006247735797563994</v>
+        <v>0.0006172297609965848</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E201">
         <v>0.95</v>
@@ -13586,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>480</v>
@@ -13618,25 +13618,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006203723188375531</v>
+        <v>0.0006172297609965848</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E202">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F202">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>481</v>
@@ -13668,25 +13668,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0006094842922470794</v>
+        <v>0.0006091693966022468</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E203">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>482</v>
@@ -13718,25 +13718,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006094842922470794</v>
+        <v>0.0006091693966022468</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E204">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>483</v>
@@ -13768,25 +13768,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0006015250754390554</v>
+        <v>0.0006009654237663094</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E205">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F205">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>484</v>
@@ -13818,25 +13818,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0006015250754390554</v>
+        <v>0.0005838453674443166</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>485</v>
@@ -13868,25 +13868,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005934240522974425</v>
+        <v>0.0005686805808927765</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E207">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F207">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>486</v>
@@ -13918,25 +13918,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005765188314704486</v>
+        <v>0.0005657836549141846</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>487</v>
@@ -13968,25 +13968,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.000561544344200878</v>
+        <v>0.0005657836549141846</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E209">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F209">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>488</v>
@@ -14018,7 +14018,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005586837710540105</v>
+        <v>0.0005657836549141846</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -14036,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>489</v>
@@ -14068,7 +14068,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005586837710540105</v>
+        <v>0.0005657836549141846</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -14086,7 +14086,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>490</v>
@@ -14118,7 +14118,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005586837710540105</v>
+        <v>0.0005657836549141846</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -14136,7 +14136,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>491</v>
@@ -14168,13 +14168,13 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005586837710540105</v>
+        <v>0.0005264229242753339</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E213">
         <v>0.9399999999999999</v>
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>492</v>
@@ -14218,25 +14218,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005586837710540105</v>
+        <v>0.000501232003080461</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E214">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F214">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>493</v>
@@ -14268,25 +14268,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005198169688165199</v>
+        <v>0.0004994783495005156</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D215">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E215">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="F215">
-        <v>0.06000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>57</v>
+        <v>915</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>494</v>
@@ -14318,25 +14318,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0004949421624709555</v>
+        <v>0.0004818773019717709</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>495</v>
@@ -14368,25 +14368,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004932105150706521</v>
+        <v>0.000472193646094034</v>
       </c>
       <c r="C217">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E217">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="F217">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>915</v>
+        <v>105</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>496</v>
@@ -14418,25 +14418,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004758303388806003</v>
+        <v>0.000457243519105969</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>497</v>
@@ -14468,25 +14468,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0004662682008860274</v>
+        <v>0.0004508991460881239</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E219">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F219">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>498</v>
@@ -14518,13 +14518,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004515056794683746</v>
+        <v>0.0004307478112287661</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <v>0.92</v>
@@ -14536,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>499</v>
@@ -14568,25 +14568,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.000445240920471191</v>
+        <v>0.0004307478112287661</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>500</v>
@@ -14618,7 +14618,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0004253424598967056</v>
+        <v>0.0004307478112287661</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14636,10 +14636,10 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K222">
         <v>0.001012893926477579</v>
@@ -14668,7 +14668,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0004253424598967056</v>
+        <v>0.0004307478112287661</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14686,10 +14686,10 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K223">
         <v>0.001010648934929931</v>
@@ -14718,7 +14718,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0004253424598967056</v>
+        <v>0.0004307478112287661</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14736,10 +14736,10 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K224">
         <v>0.001000035105787235</v>
@@ -14768,28 +14768,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0004253424598967056</v>
+        <v>0.0004238403143401202</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K225">
         <v>0.0009664212842006232</v>
@@ -14818,28 +14818,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0004253424598967056</v>
+        <v>0.0004021178950783872</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E226">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F226">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K226">
         <v>0.0009443008801446139</v>
@@ -14868,28 +14868,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0004185216435355863</v>
+        <v>0.0004021178950783872</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K227">
         <v>0.0009219156989446643</v>
@@ -14918,7 +14918,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003970718137213935</v>
+        <v>0.0004021178950783872</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14936,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>501</v>
@@ -14968,25 +14968,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0003970718137213935</v>
+        <v>0.0003743553137755044</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D229">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E229">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="F229">
-        <v>0.08999999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>502</v>
@@ -15018,25 +15018,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0003970718137213935</v>
+        <v>0.0003710216545021386</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E230">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F230">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>503</v>
@@ -15068,25 +15068,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.000369657618415874</v>
+        <v>0.0003710216545021386</v>
       </c>
       <c r="C231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="F231">
-        <v>0.18</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>504</v>
@@ -15118,7 +15118,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003663657924359671</v>
+        <v>0.0003710216545021386</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -15136,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>505</v>
@@ -15168,25 +15168,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0003663657924359671</v>
+        <v>0.0003370506985046129</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E233">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F233">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>506</v>
@@ -15218,25 +15218,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0003663657924359671</v>
+        <v>0.0003370506985046129</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>507</v>
@@ -15268,7 +15268,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0003328211298460127</v>
+        <v>0.0003370506985046129</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15286,7 +15286,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>508</v>
@@ -15318,7 +15318,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0003328211298460127</v>
+        <v>0.0003370506985046129</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15336,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>509</v>
@@ -15368,25 +15368,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0003328211298460127</v>
+        <v>0.0002997003604101369</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E237">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F237">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>510</v>
@@ -15418,25 +15418,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0003328211298460127</v>
+        <v>0.0002997003604101369</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E238">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F238">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>511</v>
@@ -15468,7 +15468,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002959394922173521</v>
+        <v>0.0002997003604101369</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15486,7 +15486,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>512</v>
@@ -15518,7 +15518,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002959394922173521</v>
+        <v>0.0002997003604101369</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15536,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>513</v>
@@ -15568,7 +15568,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002959394922173521</v>
+        <v>0.0002997003604101369</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15586,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>514</v>
@@ -15618,7 +15618,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002959394922173521</v>
+        <v>0.0002997003604101369</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15636,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>515</v>
@@ -15668,25 +15668,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0002959394922173521</v>
+        <v>0.0002583494059962499</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F243">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>516</v>
@@ -15718,25 +15718,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0002959394922173521</v>
+        <v>0.0002583494059962499</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E244">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F244">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>517</v>
@@ -15768,7 +15768,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002551074410473039</v>
+        <v>0.0002583494059962499</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15786,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>518</v>
@@ -15818,25 +15818,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002551074410473039</v>
+        <v>0.000227162276646693</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E246">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F246">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>519</v>
@@ -15868,25 +15868,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002551074410473039</v>
+        <v>0.0002122550564702424</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E247">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F247">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>520</v>
@@ -15918,25 +15918,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002243116715300625</v>
+        <v>0.0002122550564702424</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F248">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>521</v>
@@ -15968,7 +15968,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0002095915184967002</v>
+        <v>0.0002122550564702424</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15986,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>522</v>
@@ -16018,7 +16018,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002095915184967002</v>
+        <v>0.0002122550564702424</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16036,7 +16036,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>523</v>
@@ -16068,7 +16068,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002095915184967002</v>
+        <v>0.0002122550564702424</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -16086,7 +16086,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>524</v>
@@ -16118,7 +16118,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002095915184967002</v>
+        <v>0.0002122550564702424</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16136,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>525</v>
@@ -16168,7 +16168,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002095915184967002</v>
+        <v>0.0002122550564702424</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16186,7 +16186,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>526</v>
@@ -16218,25 +16218,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002095915184967002</v>
+        <v>0.00018747831270748</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>527</v>
@@ -16268,25 +16268,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002095915184967002</v>
+        <v>0.0001606279862466511</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F255">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>528</v>
@@ -16318,25 +16318,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001851256921696414</v>
+        <v>0.0001606279862466511</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>529</v>
@@ -16368,7 +16368,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001586123040381966</v>
+        <v>0.0001606279862466511</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16386,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>530</v>
@@ -16418,7 +16418,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001586123040381966</v>
+        <v>0.0001606279862466511</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16436,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>531</v>
@@ -16468,7 +16468,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001586123040381966</v>
+        <v>0.0001606279862466511</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>532</v>
@@ -16518,7 +16518,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001586123040381966</v>
+        <v>0.0001606279862466511</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16536,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>533</v>
@@ -16568,25 +16568,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001586123040381966</v>
+        <v>0.0001457675416121639</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E261">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F261">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>534</v>
@@ -16618,25 +16618,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001586123040381966</v>
+        <v>0.0001457675416121639</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F262">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>535</v>
@@ -16668,25 +16668,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0001439383395717012</v>
+        <v>0.0001077891753756504</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E263">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F263">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>536</v>
@@ -16718,13 +16718,13 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0001439383395717012</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E264">
         <v>0.75</v>
@@ -16736,7 +16736,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>537</v>
@@ -16768,25 +16768,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001064365547760554</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F265">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>538</v>
@@ -16818,7 +16818,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16836,7 +16836,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>539</v>
@@ -16868,7 +16868,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>540</v>
@@ -16918,7 +16918,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16936,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>541</v>
@@ -16968,7 +16968,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16986,7 +16986,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>542</v>
@@ -17018,7 +17018,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -17036,7 +17036,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>543</v>
@@ -17068,7 +17068,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17086,7 +17086,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>544</v>
@@ -17118,7 +17118,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17136,7 +17136,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>545</v>
@@ -17168,7 +17168,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17186,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>546</v>
@@ -17218,7 +17218,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17236,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>547</v>
@@ -17268,7 +17268,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17286,7 +17286,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>548</v>
@@ -17318,7 +17318,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17336,7 +17336,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>549</v>
@@ -17368,7 +17368,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17386,7 +17386,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>550</v>
@@ -17418,7 +17418,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.0001017797759838823</v>
+        <v>0.0001030732171508538</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17436,7 +17436,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>551</v>
@@ -17468,25 +17468,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.0001017797759838823</v>
+        <v>0.0001025423415085366</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E279">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F279">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>552</v>
@@ -17518,25 +17518,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.0001017797759838823</v>
+        <v>0.0001025423415085366</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E280">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F280">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>553</v>
@@ -17568,25 +17568,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.0001012555621731185</v>
+        <v>5.933141555718374E-05</v>
       </c>
       <c r="C281">
         <v>2</v>
       </c>
       <c r="D281">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E281">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F281">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>554</v>
@@ -17618,25 +17618,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.0001012555621731185</v>
+        <v>5.933141555718281E-05</v>
       </c>
       <c r="C282">
         <v>2</v>
       </c>
       <c r="D282">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E282">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F282">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>555</v>
@@ -17668,25 +17668,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>5.858687980388485E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283">
         <v>3</v>
       </c>
       <c r="E283">
+        <v>0.67</v>
+      </c>
+      <c r="F283">
         <v>0.33</v>
       </c>
-      <c r="F283">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>556</v>
@@ -17718,13 +17718,13 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>5.858687980388393E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E284">
         <v>0.67</v>
@@ -17736,7 +17736,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>557</v>
@@ -17768,7 +17768,7 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>558</v>
@@ -17818,7 +17818,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -17836,7 +17836,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>559</v>
@@ -17868,7 +17868,7 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>560</v>
@@ -17918,7 +17918,7 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -17936,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>561</v>
@@ -17968,7 +17968,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>562</v>
@@ -18018,7 +18018,7 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -18036,7 +18036,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>563</v>
@@ -18068,7 +18068,7 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -18086,7 +18086,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>564</v>
@@ -18118,7 +18118,7 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>4.142717999788752E-05</v>
+        <v>4.195364627788099E-05</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -18136,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>565</v>
@@ -18168,28 +18168,28 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>4.142717999788752E-05</v>
+        <v>0</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E293">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F293">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K293">
         <v>0.0008879842286930885</v>
@@ -18218,28 +18218,28 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>4.142717999788752E-05</v>
+        <v>0</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E294">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F294">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K294">
         <v>0.0008783196131168331</v>
@@ -18286,10 +18286,10 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K295">
         <v>0.0008612713794505906</v>
@@ -18336,10 +18336,10 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K296">
         <v>0.0008314361564081189</v>
@@ -18386,10 +18386,10 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K297">
         <v>0.0008283337276393665</v>
@@ -18421,10 +18421,10 @@
         <v>0</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E298">
         <v>0.5</v>
@@ -18436,10 +18436,10 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K298">
         <v>0.0008283337276393665</v>
@@ -18486,10 +18486,10 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K299">
         <v>0.000756949322242809</v>
@@ -18521,10 +18521,10 @@
         <v>0</v>
       </c>
       <c r="C300">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E300">
         <v>0.5</v>
@@ -18536,7 +18536,7 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>566</v>
@@ -18586,7 +18586,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>567</v>
@@ -18636,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>568</v>
@@ -18686,7 +18686,7 @@
         <v>1</v>
       </c>
       <c r="H303">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>569</v>
@@ -18736,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>570</v>
@@ -18786,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>571</v>
@@ -18814,30 +18814,6 @@
       </c>
     </row>
     <row r="306" spans="1:17">
-      <c r="A306" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306">
-        <v>2</v>
-      </c>
-      <c r="E306">
-        <v>0.5</v>
-      </c>
-      <c r="F306">
-        <v>0.5</v>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306">
-        <v>37</v>
-      </c>
       <c r="J306" s="1" t="s">
         <v>572</v>
       </c>
@@ -18864,30 +18840,6 @@
       </c>
     </row>
     <row r="307" spans="1:17">
-      <c r="A307" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>2</v>
-      </c>
-      <c r="E307">
-        <v>0.5</v>
-      </c>
-      <c r="F307">
-        <v>0.5</v>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307">
-        <v>72</v>
-      </c>
       <c r="J307" s="1" t="s">
         <v>573</v>
       </c>
@@ -22451,7 +22403,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K444">
         <v>0.0007251814518327596</v>
@@ -22477,7 +22429,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K445">
         <v>0.0007206294663831852</v>
@@ -22503,7 +22455,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K446">
         <v>0.0007206294663831852</v>
@@ -22529,7 +22481,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K447">
         <v>0.0006838745570999564</v>
@@ -22555,7 +22507,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K448">
         <v>0.0006695437546013326</v>
@@ -22581,7 +22533,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K449">
         <v>0.0006466722894648228</v>
@@ -22607,7 +22559,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K450">
         <v>0.0006311618616489675</v>
@@ -22633,7 +22585,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K451">
         <v>0.0006311618616489675</v>
@@ -22659,7 +22611,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K452">
         <v>0.000613215226372652</v>
@@ -22685,7 +22637,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K453">
         <v>0.0006090108328514047</v>
@@ -22711,7 +22663,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K454">
         <v>0.0006090108328514047</v>
@@ -22737,7 +22689,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K455">
         <v>0.0006090108328514047</v>
@@ -22763,7 +22715,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K456">
         <v>0.0006090108328514047</v>
@@ -22789,7 +22741,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K457">
         <v>0.0006090108328514047</v>
@@ -22815,7 +22767,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K458">
         <v>0.0005847945811123675</v>
@@ -22841,7 +22793,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K459">
         <v>0.0005749951587817457</v>
@@ -22867,7 +22819,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K460">
         <v>0.0005562062089219619</v>
@@ -22893,7 +22845,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K461">
         <v>0.000532268276955844</v>
@@ -22919,7 +22871,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K462">
         <v>0.0005274539875907193</v>
@@ -22945,7 +22897,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K463">
         <v>0.0005274539875907193</v>
@@ -32539,7 +32491,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K832">
         <v>0.0004694815811952904</v>
@@ -32565,7 +32517,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K833">
         <v>0.0004535846056195097</v>
@@ -32591,7 +32543,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K834">
         <v>0.0004135122139057015</v>
@@ -32617,7 +32569,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K835">
         <v>0.0003815034023768052</v>
@@ -32643,7 +32595,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K836">
         <v>0.0003729662913892827</v>
@@ -32669,7 +32621,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K837">
         <v>0.0003729662913892827</v>
@@ -32695,7 +32647,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K838">
         <v>0.0003729662913892827</v>
@@ -32721,7 +32673,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K839">
         <v>0.0003729662913892827</v>
@@ -32747,7 +32699,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K840">
         <v>0.0003729662913892827</v>
@@ -32773,7 +32725,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K841">
         <v>0.0003319736097053722</v>
@@ -32799,7 +32751,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K842">
         <v>0.0003319736097053722</v>
@@ -32825,7 +32777,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K843">
         <v>0.0003319736097053722</v>
@@ -32851,7 +32803,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K844">
         <v>0.0003223741460809081</v>
@@ -32877,7 +32829,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K845">
         <v>0.0003102319139511856</v>
@@ -32903,7 +32855,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K846">
         <v>0.0002927530600379307</v>
@@ -32929,7 +32881,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K847">
         <v>0.0002905833141760485</v>
@@ -32955,7 +32907,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K848">
         <v>0.0002905833141760485</v>
@@ -32981,7 +32933,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K849">
         <v>0.0002905833141760485</v>
@@ -33007,7 +32959,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K850">
         <v>0.0002547974813930677</v>
@@ -33033,7 +32985,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K851">
         <v>0.000248880221854843</v>
@@ -33059,7 +33011,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K852">
         <v>0.000248880221854843</v>
@@ -33085,7 +33037,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K853">
         <v>0.000248880221854843</v>
@@ -33111,7 +33063,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K854">
         <v>0.000248880221854843</v>
@@ -33137,7 +33089,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K855">
         <v>0.000207319627191883</v>
@@ -33163,7 +33115,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K856">
         <v>0.0002070076739659338</v>
@@ -33189,7 +33141,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K857">
         <v>0.0002070076739659338</v>
@@ -33215,7 +33167,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K858">
         <v>0.0002070076739659338</v>
@@ -33241,7 +33193,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K859">
         <v>0.0002070076739659338</v>
@@ -33267,7 +33219,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K860">
         <v>0.0002070076739659338</v>
@@ -33293,7 +33245,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K861">
         <v>0.0002070076739659338</v>
@@ -33319,7 +33271,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K862">
         <v>0.0001652088289360662</v>
@@ -33345,7 +33297,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K863">
         <v>0.0001652088289360662</v>
@@ -33371,7 +33323,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K864">
         <v>0.0001652088289360662</v>
@@ -33397,7 +33349,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K865">
         <v>0.0001239062483266501</v>
@@ -33423,7 +33375,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K866">
         <v>0.0001239062483266501</v>
@@ -33449,7 +33401,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K867">
         <v>0.0001239062483266501</v>
@@ -33475,7 +33427,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K868">
         <v>0.0001239062483266501</v>
@@ -33501,7 +33453,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K869">
         <v>0.0001239062483266501</v>
@@ -33527,7 +33479,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K870">
         <v>0.0001239062483266501</v>
@@ -33553,7 +33505,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K871">
         <v>0.0001239062483266501</v>
@@ -33579,7 +33531,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K872">
         <v>0.0001193706940058274</v>
@@ -33605,7 +33557,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K873">
         <v>0.0001186086515486514</v>
@@ -33631,7 +33583,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K874">
         <v>9.156620576090334E-05</v>
@@ -33657,7 +33609,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K875">
         <v>8.386898181744372E-05</v>
@@ -33683,7 +33635,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K876">
         <v>8.386898181744372E-05</v>
@@ -33709,7 +33661,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K877">
         <v>8.386898181744372E-05</v>
@@ -33735,7 +33687,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K878">
         <v>8.386898181744372E-05</v>
@@ -33761,7 +33713,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K879">
         <v>8.386898181744372E-05</v>
@@ -33787,7 +33739,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K880">
         <v>8.386898181744372E-05</v>
@@ -33813,7 +33765,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K881">
         <v>6.591308168292251E-05</v>
@@ -33839,7 +33791,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K882">
         <v>6.591308168292251E-05</v>
@@ -33865,7 +33817,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K883">
         <v>4.660758702689733E-05</v>
@@ -33891,7 +33843,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K884">
         <v>4.660758702689733E-05</v>
@@ -33917,7 +33869,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K885">
         <v>4.660758702689733E-05</v>
@@ -33943,7 +33895,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K886">
         <v>4.660758702689733E-05</v>
@@ -33969,7 +33921,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K887">
         <v>4.660758702689733E-05</v>
@@ -33995,7 +33947,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K888">
         <v>4.660758702689733E-05</v>
@@ -34021,7 +33973,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K889">
         <v>4.660758702689733E-05</v>
@@ -34047,7 +33999,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K890">
         <v>4.660758702689733E-05</v>
@@ -34073,7 +34025,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K891">
         <v>4.660758702689733E-05</v>
@@ -34099,7 +34051,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K892">
         <v>4.660758702689733E-05</v>
@@ -34125,7 +34077,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K893">
         <v>4.660758702689733E-05</v>
@@ -34151,7 +34103,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K894">
         <v>4.660758702689733E-05</v>
@@ -34177,7 +34129,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K895">
         <v>4.660758702689733E-05</v>
@@ -34203,7 +34155,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K896">
         <v>4.660758702689733E-05</v>
@@ -34229,7 +34181,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K897">
         <v>4.660758702689733E-05</v>
@@ -34255,7 +34207,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K898">
         <v>4.298468042935236E-05</v>
@@ -34281,7 +34233,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K899">
         <v>4.232757566234906E-05</v>
@@ -34307,7 +34259,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K900">
         <v>4.232757566234906E-05</v>
@@ -34333,7 +34285,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K901">
         <v>2.190533342958137E-05</v>
@@ -34359,7 +34311,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K902">
         <v>1.548940981220944E-05</v>
@@ -34385,7 +34337,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K903">
         <v>1.548940981220944E-05</v>
@@ -34411,7 +34363,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K904">
         <v>1.548940981220944E-05</v>
@@ -34437,7 +34389,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K905">
         <v>1.548940981220944E-05</v>
@@ -34463,7 +34415,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K906">
         <v>1.548940981220944E-05</v>
@@ -34489,7 +34441,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K907">
         <v>1.548940981220944E-05</v>
@@ -34515,7 +34467,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K908">
         <v>1.548940981220944E-05</v>
@@ -34541,7 +34493,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K909">
         <v>1.548940981220944E-05</v>
@@ -34567,7 +34519,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K910">
         <v>1.548940981220944E-05</v>
@@ -34593,7 +34545,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K911">
         <v>1.548940981220944E-05</v>
@@ -34619,7 +34571,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K912">
         <v>1.095266671479057E-05</v>
@@ -34645,7 +34597,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K913">
         <v>0</v>
@@ -34671,7 +34623,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K914">
         <v>0</v>
@@ -34697,7 +34649,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K915">
         <v>0</v>
@@ -34723,7 +34675,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K916">
         <v>0</v>
@@ -34749,7 +34701,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K917">
         <v>0</v>
@@ -34775,7 +34727,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K918">
         <v>0</v>
@@ -34801,7 +34753,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K919">
         <v>0</v>
@@ -34827,7 +34779,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K920">
         <v>0</v>
@@ -34853,7 +34805,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K921">
         <v>0</v>
@@ -34879,7 +34831,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K922">
         <v>0</v>
@@ -34905,7 +34857,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K923">
         <v>0</v>
@@ -34931,7 +34883,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K924">
         <v>0</v>
@@ -34957,7 +34909,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K925">
         <v>0</v>
